--- a/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
+++ b/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="149">
   <si>
     <t>土地坐落</t>
   </si>
@@ -211,6 +211,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>太電</t>
   </si>
   <si>
@@ -359,6 +368,9 @@
   </si>
   <si>
     <t>3，450</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
   </si>
   <si>
     <t>名</t>
@@ -1392,13 +1404,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1417,13 +1429,22 @@
       <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1440,13 +1461,22 @@
       <c r="G2" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1463,13 +1493,22 @@
       <c r="G3" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1486,13 +1525,22 @@
       <c r="G4" s="2">
         <v>220420</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1509,13 +1557,22 @@
       <c r="G5" s="2">
         <v>760</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1532,13 +1589,22 @@
       <c r="G6" s="2">
         <v>26410</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1553,15 +1619,24 @@
         <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1578,13 +1653,22 @@
       <c r="G8" s="2">
         <v>277830</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1601,13 +1685,22 @@
       <c r="G9" s="2">
         <v>237400</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1624,13 +1717,22 @@
       <c r="G10" s="2">
         <v>990</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1645,15 +1747,24 @@
         <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>107</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1668,15 +1779,24 @@
         <v>49</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>108</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1693,13 +1813,22 @@
       <c r="G13" s="2">
         <v>9510</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1716,13 +1845,22 @@
       <c r="G14" s="2">
         <v>173770</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -1737,15 +1875,24 @@
         <v>49</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1762,13 +1909,22 @@
       <c r="G16" s="2">
         <v>6420</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -1785,13 +1941,22 @@
       <c r="G17" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1808,13 +1973,22 @@
       <c r="G18" s="2">
         <v>1370</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -1831,13 +2005,22 @@
       <c r="G19" s="2">
         <v>4950</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -1854,19 +2037,28 @@
       <c r="G20" s="2">
         <v>218000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
@@ -1875,15 +2067,24 @@
         <v>49</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>110</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1900,13 +2101,22 @@
       <c r="G22" s="2">
         <v>460</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -1923,13 +2133,22 @@
       <c r="G23" s="2">
         <v>11790</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1946,13 +2165,22 @@
       <c r="G24" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -1969,13 +2197,22 @@
       <c r="G25" s="2">
         <v>990</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1992,13 +2229,22 @@
       <c r="G26" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -2013,15 +2259,24 @@
         <v>49</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>111</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2036,21 +2291,30 @@
         <v>49</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>112</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
@@ -2061,13 +2325,22 @@
       <c r="G29" s="2">
         <v>267730</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2084,13 +2357,22 @@
       <c r="G30" s="2">
         <v>1450</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -2105,15 +2387,24 @@
         <v>49</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>113</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2130,13 +2421,22 @@
       <c r="G32" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -2151,15 +2451,24 @@
         <v>49</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>114</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2176,13 +2485,22 @@
       <c r="G34" s="2">
         <v>255840</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -2199,13 +2517,22 @@
       <c r="G35" s="2">
         <v>272950</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -2222,13 +2549,22 @@
       <c r="G36" s="2">
         <v>66560</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -2245,13 +2581,22 @@
       <c r="G37" s="2">
         <v>459940</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -2266,15 +2611,24 @@
         <v>49</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -2290,6 +2644,15 @@
       </c>
       <c r="G39" s="2">
         <v>6320</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="2">
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -2307,22 +2670,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2330,14 +2693,14 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2347,22 +2710,22 @@
         <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2380,22 +2743,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2406,19 +2769,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2429,19 +2792,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2452,19 +2815,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
+++ b/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="151">
   <si>
     <t>土地坐落</t>
   </si>
@@ -211,6 +211,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -334,40 +337,43 @@
     <t>尖美</t>
   </si>
   <si>
-    <t>5，599</t>
-  </si>
-  <si>
-    <t>26，773</t>
-  </si>
-  <si>
-    <t>2,275,950</t>
-  </si>
-  <si>
-    <t>1,000,000</t>
-  </si>
-  <si>
-    <t>76，330</t>
-  </si>
-  <si>
-    <t>2，740</t>
-  </si>
-  <si>
-    <t>55，990</t>
-  </si>
-  <si>
-    <t>3，090</t>
-  </si>
-  <si>
-    <t>4，050</t>
-  </si>
-  <si>
-    <t>203，960</t>
-  </si>
-  <si>
-    <t>236，640</t>
-  </si>
-  <si>
-    <t>3，450</t>
+    <t>5599</t>
+  </si>
+  <si>
+    <t>26773</t>
+  </si>
+  <si>
+    <t>2275950</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>76330</t>
+  </si>
+  <si>
+    <t>2740</t>
+  </si>
+  <si>
+    <t>55990</t>
+  </si>
+  <si>
+    <t>3090</t>
+  </si>
+  <si>
+    <t>4050</t>
+  </si>
+  <si>
+    <t>203960</t>
+  </si>
+  <si>
+    <t>236640</t>
+  </si>
+  <si>
+    <t>3450</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-22</t>
@@ -1404,13 +1410,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1438,13 +1444,16 @@
       <c r="J1" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1462,21 +1471,24 @@
         <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1494,21 +1506,24 @@
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1526,21 +1541,24 @@
         <v>220420</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1558,21 +1576,24 @@
         <v>760</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1590,21 +1611,24 @@
         <v>26410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1619,24 +1643,27 @@
         <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1654,21 +1681,24 @@
         <v>277830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1686,21 +1716,24 @@
         <v>237400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1718,21 +1751,24 @@
         <v>990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1747,24 +1783,27 @@
         <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1779,24 +1818,27 @@
         <v>49</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1814,21 +1856,24 @@
         <v>9510</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1846,21 +1891,24 @@
         <v>173770</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -1875,24 +1923,27 @@
         <v>49</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1910,21 +1961,24 @@
         <v>6420</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -1942,21 +1996,24 @@
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1974,21 +2031,24 @@
         <v>1370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -2006,21 +2066,24 @@
         <v>4950</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -2038,27 +2101,30 @@
         <v>218000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
@@ -2067,24 +2133,27 @@
         <v>49</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -2102,21 +2171,24 @@
         <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -2134,21 +2206,24 @@
         <v>11790</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -2166,21 +2241,24 @@
         <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -2198,21 +2276,24 @@
         <v>990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -2230,21 +2311,24 @@
         <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -2259,24 +2343,27 @@
         <v>49</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2291,30 +2378,33 @@
         <v>49</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
@@ -2326,21 +2416,24 @@
         <v>267730</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2358,21 +2451,24 @@
         <v>1450</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -2387,24 +2483,27 @@
         <v>49</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2422,21 +2521,24 @@
         <v>200000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -2451,24 +2553,27 @@
         <v>49</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2486,21 +2591,24 @@
         <v>255840</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -2518,21 +2626,24 @@
         <v>272950</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -2550,21 +2661,24 @@
         <v>66560</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -2582,21 +2696,24 @@
         <v>459940</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -2611,24 +2728,27 @@
         <v>49</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -2646,12 +2766,15 @@
         <v>6320</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="2">
+        <v>118</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="2">
         <v>960</v>
       </c>
     </row>
@@ -2670,22 +2793,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2693,14 +2816,14 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2710,22 +2833,22 @@
         <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2743,22 +2866,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2769,19 +2892,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2792,19 +2915,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2815,19 +2938,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
+++ b/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="156">
   <si>
     <t>土地坐落</t>
   </si>
@@ -214,6 +214,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -223,6 +226,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>太電</t>
   </si>
   <si>
@@ -376,7 +385,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmpf3421</t>
   </si>
   <si>
     <t>名</t>
@@ -1410,13 +1425,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1447,13 +1462,22 @@
       <c r="K1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1471,24 +1495,33 @@
         <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2">
+        <v>960</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1506,24 +1539,33 @@
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>960</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1541,24 +1583,33 @@
         <v>220420</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2">
+        <v>960</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1576,24 +1627,33 @@
         <v>760</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2">
+        <v>960</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1611,24 +1671,33 @@
         <v>26410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2">
+        <v>960</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1643,27 +1712,36 @@
         <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>960</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1681,24 +1759,33 @@
         <v>277830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2">
+        <v>960</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1716,24 +1803,33 @@
         <v>237400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="2">
+        <v>960</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1751,24 +1847,33 @@
         <v>990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="2">
+        <v>960</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1783,27 +1888,36 @@
         <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="2">
+        <v>960</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1818,27 +1932,36 @@
         <v>49</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="2">
+        <v>960</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1856,24 +1979,33 @@
         <v>9510</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="2">
+        <v>960</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1891,24 +2023,33 @@
         <v>173770</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="2">
+        <v>960</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -1923,27 +2064,36 @@
         <v>49</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="2">
+        <v>960</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1961,24 +2111,33 @@
         <v>6420</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="2">
+        <v>960</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -1996,24 +2155,33 @@
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="2">
+        <v>960</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -2031,24 +2199,33 @@
         <v>1370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="2">
+        <v>960</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -2066,24 +2243,33 @@
         <v>4950</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="2">
+        <v>960</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -2101,30 +2287,39 @@
         <v>218000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="2">
+        <v>960</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
@@ -2133,27 +2328,36 @@
         <v>49</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="2">
+        <v>960</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N21" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -2171,24 +2375,33 @@
         <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="2">
+        <v>960</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N22" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -2206,24 +2419,33 @@
         <v>11790</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="2">
+        <v>960</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N23" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -2241,24 +2463,33 @@
         <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="2">
+        <v>960</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N24" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -2276,24 +2507,33 @@
         <v>990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="2">
+        <v>960</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N25" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -2311,24 +2551,33 @@
         <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="2">
+        <v>960</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -2343,27 +2592,36 @@
         <v>49</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="2">
+        <v>960</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N27" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2378,33 +2636,42 @@
         <v>49</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="2">
+        <v>960</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N28" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
@@ -2416,24 +2683,33 @@
         <v>267730</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="2">
+        <v>960</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N29" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2451,24 +2727,33 @@
         <v>1450</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="2">
+        <v>960</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -2483,27 +2768,36 @@
         <v>49</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="2">
+        <v>960</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N31" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2521,24 +2815,33 @@
         <v>200000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="2">
+        <v>960</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N32" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -2553,27 +2856,36 @@
         <v>49</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="2">
+        <v>960</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N33" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2591,24 +2903,33 @@
         <v>255840</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="2">
+        <v>960</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N34" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -2626,24 +2947,33 @@
         <v>272950</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="2">
+        <v>960</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N35" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -2661,24 +2991,33 @@
         <v>66560</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="2">
+        <v>960</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N36" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -2696,24 +3035,33 @@
         <v>459940</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="2">
+        <v>960</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N37" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -2728,27 +3076,36 @@
         <v>49</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="2">
+        <v>960</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N38" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -2766,16 +3123,25 @@
         <v>6320</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" s="2">
-        <v>960</v>
+        <v>122</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="2">
+        <v>960</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N39" s="2">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2793,22 +3159,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2816,14 +3182,14 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2833,22 +3199,22 @@
         <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2866,22 +3232,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2892,19 +3258,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2915,19 +3281,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2938,19 +3304,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
+++ b/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
@@ -20,9 +20,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="156">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="160">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>桃園縣桃園市和平段04110000地號</t>
+  </si>
+  <si>
+    <t>100000分之1942</t>
+  </si>
+  <si>
+    <t>楊麗環</t>
+  </si>
+  <si>
+    <t>97年05月19日</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>1102154</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmpf3421</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -31,7 +103,7 @@
     <t>權利範圍(持分）</t>
   </si>
   <si>
-    <t>所有#人</t>
+    <t>所有權人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
@@ -43,34 +115,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>桃園縣桃園市和平段0411-0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之 1942</t>
-  </si>
-  <si>
-    <t>楊麗環</t>
-  </si>
-  <si>
-    <t>97年05月 19日</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>1,102,154</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>桃園縣桃園市莊二段04489-000 建號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃園市莊二段04460-000 建號</t>
+    <t>桃園縣桃園市莊二段04489000建號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃園市莊二段04460000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -82,7 +130,7 @@
     <t>楊麗場</t>
   </si>
   <si>
-    <t>97年05月 19曰</t>
+    <t>97年05月19曰</t>
   </si>
   <si>
     <t>買賣</t>
@@ -100,10 +148,10 @@
     <t>國瑞</t>
   </si>
   <si>
-    <t>97年05月 26日</t>
-  </si>
-  <si>
-    <t>1,150,000</t>
+    <t>97年05月26日</t>
+  </si>
+  <si>
+    <t>1150000</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -154,7 +202,7 @@
     <t>台北富邦商業銀行</t>
   </si>
   <si>
-    <t>大眾商業銀行國外部，國際 金融業務分行</t>
+    <t>大眾商業銀行國外部國際金融業務分行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -175,28 +223,22 @@
     <t>南非幣</t>
   </si>
   <si>
-    <t>121,770.91</t>
-  </si>
-  <si>
-    <t>1,107,075</t>
-  </si>
-  <si>
-    <t>2,628,758</t>
-  </si>
-  <si>
-    <t>1,441,481</t>
-  </si>
-  <si>
-    <t>1,399,170</t>
-  </si>
-  <si>
-    <t>438,375.28</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>121770.91</t>
+  </si>
+  <si>
+    <t>1107075</t>
+  </si>
+  <si>
+    <t>2628758</t>
+  </si>
+  <si>
+    <t>1441481</t>
+  </si>
+  <si>
+    <t>1399170</t>
+  </si>
+  <si>
+    <t>438375.28</t>
   </si>
   <si>
     <t>quantity</t>
@@ -211,27 +253,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>太電</t>
   </si>
   <si>
@@ -385,15 +406,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-22</t>
-  </si>
-  <si>
-    <t>tmpf3421</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -412,22 +424,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總通</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總通</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>曼額：新臺幣 元）</t>
+    <t>曼額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -472,19 +484,19 @@
     <t>桃圜縣桃德路305號</t>
   </si>
   <si>
-    <t>2,000,000</t>
-  </si>
-  <si>
-    <t>2,500,000</t>
-  </si>
-  <si>
-    <t>87年08月 01日</t>
-  </si>
-  <si>
-    <t>92年08月 01日</t>
-  </si>
-  <si>
-    <t>100年02月 01日</t>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>2500000</t>
+  </si>
+  <si>
+    <t>87年08月01日</t>
+  </si>
+  <si>
+    <t>92年08月01日</t>
+  </si>
+  <si>
+    <t>100年02月01日</t>
   </si>
   <si>
     <t>投資</t>
@@ -846,13 +858,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,31 +886,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1796</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>960</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -916,25 +970,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -942,22 +996,22 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>121.97</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2">
         <v>892100</v>
@@ -968,22 +1022,22 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>9.29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2">
         <v>130639</v>
@@ -1004,22 +1058,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1027,22 +1081,22 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1060,22 +1114,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1083,20 +1137,20 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1104,20 +1158,20 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1125,20 +1179,20 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1146,16 +1200,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1167,16 +1221,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1188,16 +1242,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1209,16 +1263,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1230,16 +1284,16 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1251,20 +1305,20 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1272,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1293,16 +1347,16 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1314,16 +1368,16 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1335,16 +1389,16 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1356,16 +1410,16 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1377,22 +1431,22 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1400,16 +1454,16 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2">
         <v>9.28</v>
@@ -1433,43 +1487,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1477,10 +1531,10 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>24</v>
@@ -1489,28 +1543,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2">
         <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2">
         <v>960</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2">
         <v>67</v>
@@ -1521,10 +1575,10 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>10</v>
@@ -1533,28 +1587,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2">
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2">
         <v>960</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2">
         <v>68</v>
@@ -1565,10 +1619,10 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>22042</v>
@@ -1577,28 +1631,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2">
         <v>220420</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L4" s="2">
         <v>960</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2">
         <v>69</v>
@@ -1609,10 +1663,10 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>76</v>
@@ -1621,28 +1675,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2">
         <v>760</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2">
         <v>960</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N5" s="2">
         <v>70</v>
@@ -1653,10 +1707,10 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>2641</v>
@@ -1665,28 +1719,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2">
         <v>26410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L6" s="2">
         <v>960</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N6" s="2">
         <v>71</v>
@@ -1697,10 +1751,10 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>227595</v>
@@ -1709,28 +1763,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L7" s="2">
         <v>960</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N7" s="2">
         <v>72</v>
@@ -1741,10 +1795,10 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>27783</v>
@@ -1753,28 +1807,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2">
         <v>277830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L8" s="2">
         <v>960</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N8" s="2">
         <v>73</v>
@@ -1785,10 +1839,10 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>23740</v>
@@ -1797,28 +1851,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G9" s="2">
         <v>237400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L9" s="2">
         <v>960</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N9" s="2">
         <v>74</v>
@@ -1829,10 +1883,10 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>99</v>
@@ -1841,28 +1895,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2">
         <v>990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L10" s="2">
         <v>960</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N10" s="2">
         <v>75</v>
@@ -1873,10 +1927,10 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>100000</v>
@@ -1885,28 +1939,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L11" s="2">
         <v>960</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N11" s="2">
         <v>76</v>
@@ -1917,10 +1971,10 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>7633</v>
@@ -1929,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L12" s="2">
         <v>960</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N12" s="2">
         <v>78</v>
@@ -1961,10 +2015,10 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2">
         <v>951</v>
@@ -1973,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2">
         <v>9510</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L13" s="2">
         <v>960</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N13" s="2">
         <v>79</v>
@@ -2005,10 +2059,10 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
         <v>17377</v>
@@ -2017,28 +2071,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2">
         <v>173770</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L14" s="2">
         <v>960</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N14" s="2">
         <v>80</v>
@@ -2049,10 +2103,10 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2">
         <v>274</v>
@@ -2061,28 +2115,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L15" s="2">
         <v>960</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N15" s="2">
         <v>81</v>
@@ -2093,10 +2147,10 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2">
         <v>642</v>
@@ -2105,28 +2159,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2">
         <v>6420</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L16" s="2">
         <v>960</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N16" s="2">
         <v>82</v>
@@ -2137,10 +2191,10 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -2149,28 +2203,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2">
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L17" s="2">
         <v>960</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N17" s="2">
         <v>83</v>
@@ -2181,10 +2235,10 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2">
         <v>137</v>
@@ -2193,28 +2247,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G18" s="2">
         <v>1370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L18" s="2">
         <v>960</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N18" s="2">
         <v>84</v>
@@ -2225,10 +2279,10 @@
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2">
         <v>495</v>
@@ -2237,28 +2291,28 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2">
         <v>4950</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L19" s="2">
         <v>960</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N19" s="2">
         <v>85</v>
@@ -2269,10 +2323,10 @@
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2">
         <v>21800</v>
@@ -2281,28 +2335,28 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G20" s="2">
         <v>218000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L20" s="2">
         <v>960</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N20" s="2">
         <v>86</v>
@@ -2313,40 +2367,40 @@
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L21" s="2">
         <v>960</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N21" s="2">
         <v>87</v>
@@ -2357,10 +2411,10 @@
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2">
         <v>46</v>
@@ -2369,28 +2423,28 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G22" s="2">
         <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L22" s="2">
         <v>960</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N22" s="2">
         <v>88</v>
@@ -2401,10 +2455,10 @@
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2">
         <v>1179</v>
@@ -2413,28 +2467,28 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G23" s="2">
         <v>11790</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L23" s="2">
         <v>960</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N23" s="2">
         <v>89</v>
@@ -2445,10 +2499,10 @@
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2">
         <v>23</v>
@@ -2457,28 +2511,28 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G24" s="2">
         <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L24" s="2">
         <v>960</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N24" s="2">
         <v>90</v>
@@ -2489,10 +2543,10 @@
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2">
         <v>99</v>
@@ -2501,28 +2555,28 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G25" s="2">
         <v>990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L25" s="2">
         <v>960</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N25" s="2">
         <v>91</v>
@@ -2533,10 +2587,10 @@
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2">
         <v>26</v>
@@ -2545,28 +2599,28 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G26" s="2">
         <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L26" s="2">
         <v>960</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N26" s="2">
         <v>92</v>
@@ -2577,10 +2631,10 @@
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2">
         <v>309</v>
@@ -2589,28 +2643,28 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L27" s="2">
         <v>960</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N27" s="2">
         <v>93</v>
@@ -2621,10 +2675,10 @@
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2">
         <v>405</v>
@@ -2633,28 +2687,28 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L28" s="2">
         <v>960</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N28" s="2">
         <v>94</v>
@@ -2665,40 +2719,40 @@
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G29" s="2">
         <v>267730</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L29" s="2">
         <v>960</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N29" s="2">
         <v>95</v>
@@ -2709,10 +2763,10 @@
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2">
         <v>145</v>
@@ -2721,28 +2775,28 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G30" s="2">
         <v>1450</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L30" s="2">
         <v>960</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N30" s="2">
         <v>96</v>
@@ -2753,10 +2807,10 @@
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2">
         <v>20396</v>
@@ -2765,28 +2819,28 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L31" s="2">
         <v>960</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N31" s="2">
         <v>97</v>
@@ -2797,10 +2851,10 @@
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2">
         <v>20000</v>
@@ -2809,28 +2863,28 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G32" s="2">
         <v>200000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L32" s="2">
         <v>960</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N32" s="2">
         <v>98</v>
@@ -2841,10 +2895,10 @@
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2">
         <v>23664</v>
@@ -2853,28 +2907,28 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L33" s="2">
         <v>960</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N33" s="2">
         <v>99</v>
@@ -2885,10 +2939,10 @@
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2">
         <v>25584</v>
@@ -2897,28 +2951,28 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G34" s="2">
         <v>255840</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L34" s="2">
         <v>960</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N34" s="2">
         <v>100</v>
@@ -2929,10 +2983,10 @@
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2">
         <v>27295</v>
@@ -2941,28 +2995,28 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G35" s="2">
         <v>272950</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L35" s="2">
         <v>960</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N35" s="2">
         <v>101</v>
@@ -2973,10 +3027,10 @@
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2">
         <v>6656</v>
@@ -2985,28 +3039,28 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G36" s="2">
         <v>66560</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L36" s="2">
         <v>960</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N36" s="2">
         <v>102</v>
@@ -3017,10 +3071,10 @@
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2">
         <v>45994</v>
@@ -3029,28 +3083,28 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G37" s="2">
         <v>459940</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L37" s="2">
         <v>960</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N37" s="2">
         <v>103</v>
@@ -3061,10 +3115,10 @@
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2">
         <v>345</v>
@@ -3073,28 +3127,28 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L38" s="2">
         <v>960</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N38" s="2">
         <v>104</v>
@@ -3105,10 +3159,10 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2">
         <v>632</v>
@@ -3117,28 +3171,28 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G39" s="2">
         <v>6320</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L39" s="2">
         <v>960</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N39" s="2">
         <v>105</v>
@@ -3159,22 +3213,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3182,14 +3236,14 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3199,22 +3253,22 @@
         <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3232,22 +3286,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3255,22 +3309,22 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3278,22 +3332,22 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3301,22 +3355,22 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
+++ b/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="136">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>買賣</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>國瑞</t>
@@ -1068,38 +1071,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1">
-        <v>3456</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
@@ -1108,13 +1132,34 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>960</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1132,20 +1177,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1153,20 +1198,20 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1174,20 +1219,20 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1195,20 +1240,20 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1216,13 +1261,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1237,13 +1282,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1258,13 +1303,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1279,13 +1324,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1300,13 +1345,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1321,20 +1366,20 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1342,13 +1387,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1363,13 +1408,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1384,13 +1429,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1405,13 +1450,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1426,13 +1471,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1447,22 +1492,22 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1470,13 +1515,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1509,13 +1554,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1547,7 +1592,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1559,13 +1604,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1591,7 +1636,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1603,13 +1648,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2">
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1635,7 +1680,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1647,13 +1692,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2">
         <v>220420</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1679,7 +1724,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1691,13 +1736,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2">
         <v>760</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1723,7 +1768,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1735,13 +1780,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>26410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1767,7 +1812,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1779,13 +1824,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -1811,7 +1856,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1823,13 +1868,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2">
         <v>277830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -1855,7 +1900,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1867,13 +1912,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2">
         <v>237400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -1899,7 +1944,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -1911,13 +1956,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2">
         <v>990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
@@ -1943,7 +1988,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -1955,13 +2000,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>23</v>
@@ -1987,7 +2032,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -1999,13 +2044,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
@@ -2031,7 +2076,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2043,13 +2088,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2">
         <v>9510</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>23</v>
@@ -2075,7 +2120,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -2087,13 +2132,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2">
         <v>173770</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
@@ -2119,7 +2164,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2131,13 +2176,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>23</v>
@@ -2163,7 +2208,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -2175,13 +2220,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" s="2">
         <v>6420</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
@@ -2207,7 +2252,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -2219,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2">
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>23</v>
@@ -2251,7 +2296,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -2263,13 +2308,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2">
         <v>1370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>23</v>
@@ -2295,7 +2340,7 @@
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -2307,13 +2352,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" s="2">
         <v>4950</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>23</v>
@@ -2339,7 +2384,7 @@
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -2351,13 +2396,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2">
         <v>218000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>23</v>
@@ -2383,25 +2428,25 @@
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>23</v>
@@ -2427,7 +2472,7 @@
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -2439,13 +2484,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" s="2">
         <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>23</v>
@@ -2471,7 +2516,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -2483,13 +2528,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="2">
         <v>11790</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>23</v>
@@ -2515,7 +2560,7 @@
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -2527,13 +2572,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" s="2">
         <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>23</v>
@@ -2559,7 +2604,7 @@
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -2571,13 +2616,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25" s="2">
         <v>990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>23</v>
@@ -2603,7 +2648,7 @@
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -2615,13 +2660,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26" s="2">
         <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>23</v>
@@ -2647,7 +2692,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
@@ -2659,13 +2704,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>23</v>
@@ -2691,7 +2736,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -2703,13 +2748,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>23</v>
@@ -2735,25 +2780,25 @@
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29" s="2">
         <v>267730</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>23</v>
@@ -2779,7 +2824,7 @@
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
@@ -2791,13 +2836,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30" s="2">
         <v>1450</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>23</v>
@@ -2823,7 +2868,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -2835,13 +2880,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>23</v>
@@ -2867,7 +2912,7 @@
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -2879,13 +2924,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32" s="2">
         <v>200000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>23</v>
@@ -2911,7 +2956,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -2923,13 +2968,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>23</v>
@@ -2955,7 +3000,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -2967,13 +3012,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G34" s="2">
         <v>255840</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>23</v>
@@ -2999,7 +3044,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
@@ -3011,13 +3056,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G35" s="2">
         <v>272950</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>23</v>
@@ -3043,7 +3088,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
@@ -3055,13 +3100,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G36" s="2">
         <v>66560</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>23</v>
@@ -3087,7 +3132,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
@@ -3099,13 +3144,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37" s="2">
         <v>459940</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>23</v>
@@ -3131,7 +3176,7 @@
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
@@ -3143,13 +3188,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>23</v>
@@ -3175,7 +3220,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>18</v>
@@ -3187,13 +3232,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G39" s="2">
         <v>6320</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>23</v>
@@ -3229,14 +3274,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3246,16 +3291,16 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3263,22 +3308,22 @@
         <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3299,19 +3344,19 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1">
         <v>950000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3322,19 +3367,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3345,19 +3390,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3368,19 +3413,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
+++ b/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -121,6 +121,9 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
   </si>
   <si>
     <t>1150000</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>合作金庫商業銀行</t>
@@ -984,7 +990,7 @@
         <v>892100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -1037,7 +1043,7 @@
         <v>130639</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>23</v>
@@ -1082,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1123,7 +1129,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
@@ -1132,16 +1138,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1177,20 +1183,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1198,20 +1204,20 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1219,20 +1225,20 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1240,20 +1246,20 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1261,13 +1267,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1282,13 +1288,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1303,13 +1309,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1324,13 +1330,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1345,13 +1351,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1366,20 +1372,20 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1387,13 +1393,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1408,13 +1414,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1429,13 +1435,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1450,13 +1456,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1471,13 +1477,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1492,22 +1498,22 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1515,13 +1521,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1554,13 +1560,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1592,7 +1598,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1604,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1636,7 +1642,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1648,13 +1654,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1680,7 +1686,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1692,13 +1698,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
         <v>220420</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1724,7 +1730,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1736,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
         <v>760</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1768,7 +1774,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1780,13 +1786,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
         <v>26410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1812,7 +1818,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1824,13 +1830,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -1856,7 +1862,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1868,13 +1874,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
         <v>277830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -1900,7 +1906,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1912,13 +1918,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
         <v>237400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -1944,7 +1950,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -1956,13 +1962,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
         <v>990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
@@ -1988,7 +1994,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2000,13 +2006,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>23</v>
@@ -2032,7 +2038,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2044,13 +2050,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
@@ -2076,7 +2082,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2088,13 +2094,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2">
         <v>9510</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>23</v>
@@ -2120,7 +2126,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -2132,13 +2138,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2">
         <v>173770</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
@@ -2164,7 +2170,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2176,13 +2182,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>23</v>
@@ -2208,7 +2214,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -2220,13 +2226,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2">
         <v>6420</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
@@ -2252,7 +2258,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -2264,13 +2270,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G17" s="2">
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>23</v>
@@ -2296,7 +2302,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -2308,13 +2314,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G18" s="2">
         <v>1370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>23</v>
@@ -2340,7 +2346,7 @@
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -2352,13 +2358,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G19" s="2">
         <v>4950</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>23</v>
@@ -2384,7 +2390,7 @@
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -2396,13 +2402,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G20" s="2">
         <v>218000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>23</v>
@@ -2428,25 +2434,25 @@
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>23</v>
@@ -2472,7 +2478,7 @@
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -2484,13 +2490,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G22" s="2">
         <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>23</v>
@@ -2516,7 +2522,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -2528,13 +2534,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G23" s="2">
         <v>11790</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>23</v>
@@ -2560,7 +2566,7 @@
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -2572,13 +2578,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G24" s="2">
         <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>23</v>
@@ -2604,7 +2610,7 @@
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -2616,13 +2622,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" s="2">
         <v>990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>23</v>
@@ -2648,7 +2654,7 @@
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -2660,13 +2666,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G26" s="2">
         <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>23</v>
@@ -2692,7 +2698,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
@@ -2704,13 +2710,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>23</v>
@@ -2736,7 +2742,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -2748,13 +2754,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>23</v>
@@ -2780,25 +2786,25 @@
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G29" s="2">
         <v>267730</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>23</v>
@@ -2824,7 +2830,7 @@
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
@@ -2836,13 +2842,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G30" s="2">
         <v>1450</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>23</v>
@@ -2868,7 +2874,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -2880,13 +2886,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>23</v>
@@ -2912,7 +2918,7 @@
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -2924,13 +2930,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G32" s="2">
         <v>200000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>23</v>
@@ -2956,7 +2962,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -2968,13 +2974,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>23</v>
@@ -3000,7 +3006,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -3012,13 +3018,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G34" s="2">
         <v>255840</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>23</v>
@@ -3044,7 +3050,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
@@ -3056,13 +3062,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G35" s="2">
         <v>272950</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>23</v>
@@ -3088,7 +3094,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
@@ -3100,13 +3106,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G36" s="2">
         <v>66560</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>23</v>
@@ -3132,7 +3138,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
@@ -3144,13 +3150,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G37" s="2">
         <v>459940</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>23</v>
@@ -3176,7 +3182,7 @@
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
@@ -3188,13 +3194,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>23</v>
@@ -3220,7 +3226,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>18</v>
@@ -3232,13 +3238,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G39" s="2">
         <v>6320</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>23</v>
@@ -3274,14 +3280,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3291,16 +3297,16 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3308,22 +3314,22 @@
         <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3344,19 +3350,19 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1">
         <v>950000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3367,19 +3373,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3390,19 +3396,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3413,19 +3419,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
+++ b/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="135">
   <si>
     <t>name</t>
   </si>
@@ -139,85 +139,76 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行</t>
   </si>
   <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>桃園縣桃園市農會</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>桃園信用合作社</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>中國國際商業銀行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行</t>
+  </si>
+  <si>
+    <t>渣打國際商業銀行</t>
+  </si>
+  <si>
+    <t>遠東國際商業銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行國外部國際金融業務分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1107075</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>桃園縣桃園市農會</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>桃園信用合作社</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>中國國際商業銀行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行</t>
-  </si>
-  <si>
-    <t>渣打國際商業銀行</t>
-  </si>
-  <si>
-    <t>遠東國際商業銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行國外部國際金融業務分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
     <t>南非幣</t>
   </si>
   <si>
-    <t>121770.91</t>
-  </si>
-  <si>
-    <t>2628758</t>
-  </si>
-  <si>
-    <t>1441481</t>
-  </si>
-  <si>
-    <t>1399170</t>
-  </si>
-  <si>
-    <t>438375.28</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>太電</t>
@@ -1175,13 +1166,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1192,35 +1183,75 @@
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>1107075</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>960</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>46</v>
       </c>
@@ -1228,20 +1259,40 @@
         <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>2628758</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>960</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>47</v>
       </c>
@@ -1249,20 +1300,40 @@
         <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>1441481</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>960</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>48</v>
       </c>
@@ -1270,20 +1341,40 @@
         <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>2937</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
+        <v>960</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>49</v>
       </c>
@@ -1291,20 +1382,40 @@
         <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>5380</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>960</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -1312,20 +1423,40 @@
         <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>3059</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>960</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>51</v>
       </c>
@@ -1333,20 +1464,40 @@
         <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>519663</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2">
+        <v>960</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>52</v>
       </c>
@@ -1354,20 +1505,40 @@
         <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>722073</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>960</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>53</v>
       </c>
@@ -1375,20 +1546,40 @@
         <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>1399170</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2">
+        <v>960</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>54</v>
       </c>
@@ -1396,20 +1587,40 @@
         <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2">
+        <v>960</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>55</v>
       </c>
@@ -1417,20 +1628,40 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>491307</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2">
+        <v>960</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>56</v>
       </c>
@@ -1438,20 +1669,40 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>29024</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="2">
+        <v>960</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>57</v>
       </c>
@@ -1459,20 +1710,40 @@
         <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>509380</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="2">
+        <v>960</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>58</v>
       </c>
@@ -1480,20 +1751,40 @@
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>567728</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="2">
+        <v>960</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>59</v>
       </c>
@@ -1501,22 +1792,40 @@
         <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>58</v>
+      <c r="F16" s="2">
+        <v>438375.28</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2">
+        <v>960</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>60</v>
       </c>
@@ -1524,19 +1833,37 @@
         <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>9.28</v>
-      </c>
-      <c r="G17" s="2">
         <v>33.41</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="2">
+        <v>960</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="2">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1560,13 +1887,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1598,7 +1925,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1610,13 +1937,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2">
         <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1642,7 +1969,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1654,13 +1981,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2">
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1686,7 +2013,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1698,13 +2025,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2">
         <v>220420</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1730,7 +2057,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1742,13 +2069,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2">
         <v>760</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1774,7 +2101,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1786,13 +2113,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2">
         <v>26410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1818,7 +2145,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1830,13 +2157,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -1862,7 +2189,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1874,13 +2201,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2">
         <v>277830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -1906,7 +2233,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1918,13 +2245,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2">
         <v>237400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -1950,7 +2277,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -1962,13 +2289,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2">
         <v>990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
@@ -1994,7 +2321,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2006,13 +2333,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>23</v>
@@ -2038,7 +2365,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2050,13 +2377,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
@@ -2082,7 +2409,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2094,13 +2421,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2">
         <v>9510</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>23</v>
@@ -2126,7 +2453,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -2138,13 +2465,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2">
         <v>173770</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
@@ -2170,7 +2497,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2182,13 +2509,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>23</v>
@@ -2214,7 +2541,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -2226,13 +2553,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G16" s="2">
         <v>6420</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
@@ -2258,7 +2585,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -2270,13 +2597,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2">
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>23</v>
@@ -2302,7 +2629,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -2314,13 +2641,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G18" s="2">
         <v>1370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>23</v>
@@ -2346,7 +2673,7 @@
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -2358,13 +2685,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G19" s="2">
         <v>4950</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>23</v>
@@ -2390,7 +2717,7 @@
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -2402,13 +2729,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G20" s="2">
         <v>218000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>23</v>
@@ -2434,25 +2761,25 @@
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>23</v>
@@ -2478,7 +2805,7 @@
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -2490,13 +2817,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G22" s="2">
         <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>23</v>
@@ -2522,7 +2849,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -2534,13 +2861,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G23" s="2">
         <v>11790</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>23</v>
@@ -2566,7 +2893,7 @@
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -2578,13 +2905,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G24" s="2">
         <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>23</v>
@@ -2610,7 +2937,7 @@
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -2622,13 +2949,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G25" s="2">
         <v>990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>23</v>
@@ -2654,7 +2981,7 @@
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -2666,13 +2993,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G26" s="2">
         <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>23</v>
@@ -2698,7 +3025,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
@@ -2710,13 +3037,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>23</v>
@@ -2742,7 +3069,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -2754,13 +3081,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>23</v>
@@ -2786,25 +3113,25 @@
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G29" s="2">
         <v>267730</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>23</v>
@@ -2830,7 +3157,7 @@
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
@@ -2842,13 +3169,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G30" s="2">
         <v>1450</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>23</v>
@@ -2874,7 +3201,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -2886,13 +3213,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>23</v>
@@ -2918,7 +3245,7 @@
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -2930,13 +3257,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G32" s="2">
         <v>200000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>23</v>
@@ -2962,7 +3289,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -2974,13 +3301,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>23</v>
@@ -3006,7 +3333,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -3018,13 +3345,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G34" s="2">
         <v>255840</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>23</v>
@@ -3050,7 +3377,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
@@ -3062,13 +3389,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G35" s="2">
         <v>272950</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>23</v>
@@ -3094,7 +3421,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
@@ -3106,13 +3433,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G36" s="2">
         <v>66560</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>23</v>
@@ -3138,7 +3465,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
@@ -3150,13 +3477,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G37" s="2">
         <v>459940</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>23</v>
@@ -3182,7 +3509,7 @@
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
@@ -3194,13 +3521,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>23</v>
@@ -3226,7 +3553,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>18</v>
@@ -3238,13 +3565,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G39" s="2">
         <v>6320</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>23</v>
@@ -3280,14 +3607,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3297,16 +3624,16 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3314,22 +3641,22 @@
         <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3350,19 +3677,19 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1">
         <v>950000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3373,19 +3700,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3396,19 +3723,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3419,19 +3746,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
+++ b/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
@@ -12,15 +12,14 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
-    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -362,33 +361,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總通</t>
-  </si>
-  <si>
-    <t>曼額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>瑞恩帝兒幼稚園</t>
@@ -3599,73 +3571,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>124</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>125</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3677,19 +3582,19 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1">
         <v>950000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3700,19 +3605,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3723,19 +3628,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3746,19 +3651,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
+++ b/legislator/property/output/normal/楊麗環_2011-11-22_財產申報表_tmpf3421.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -363,40 +363,43 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>瑞恩帝兒幼稚園</t>
   </si>
   <si>
+    <t>瑞恩帝兒環中幼稚園</t>
+  </si>
+  <si>
+    <t>瑞恩帝兒桃德幼稚園</t>
+  </si>
+  <si>
     <t>桃園縣同安街505號</t>
   </si>
   <si>
+    <t>桃園縣新生北路558號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃德路305號</t>
+  </si>
+  <si>
     <t>87年08月01日</t>
   </si>
   <si>
+    <t>92年08月01日</t>
+  </si>
+  <si>
+    <t>100年02月01日</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>瑞恩帝兒環中幼稚園</t>
-  </si>
-  <si>
-    <t>瑞恩帝兒桃德幼稚園</t>
-  </si>
-  <si>
-    <t>桃園縣新生北路558號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃德路305號</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>2500000</t>
-  </si>
-  <si>
-    <t>92年08月01日</t>
-  </si>
-  <si>
-    <t>100年02月01日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -3571,15 +3574,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>114</v>
@@ -3587,17 +3590,38 @@
       <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="1">
-        <v>950000</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>144</v>
       </c>
@@ -3605,22 +3629,43 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>125</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>960</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>145</v>
       </c>
@@ -3628,22 +3673,43 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>122</v>
+      <c r="E3" s="2">
+        <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>125</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>960</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>146</v>
       </c>
@@ -3651,19 +3717,40 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>123</v>
+      <c r="E4" s="2">
+        <v>2500000</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>117</v>
+      <c r="H4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2">
+        <v>960</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
